--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3164.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3164.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.733382979734925</v>
+        <v>0.9598774909973145</v>
       </c>
       <c r="B1">
-        <v>1.849751218736245</v>
+        <v>2.076278448104858</v>
       </c>
       <c r="C1">
-        <v>1.913038187238383</v>
+        <v>5.085182189941406</v>
       </c>
       <c r="D1">
-        <v>2.515777874964992</v>
+        <v>1.898971557617188</v>
       </c>
       <c r="E1">
-        <v>4.147324574207528</v>
+        <v>1.324110746383667</v>
       </c>
     </row>
   </sheetData>
